--- a/examples/models/CACC_biorecipe.xlsx
+++ b/examples/models/CACC_biorecipe.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emilee/Documents/BioRECIPE/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pitt-my.sharepoint.com/personal/gaz11_pitt_edu/Documents/Personal/Github/BioRECIPE/examples/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E8FAB65-7A19-DC45-9576-EBAD29E1929E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{9E8FAB65-7A19-DC45-9576-EBAD29E1929E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{06CDD95D-C335-0C4F-B132-3F57DFB8C796}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="baseline" sheetId="9" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="175">
   <si>
     <t>#</t>
   </si>
@@ -559,6 +559,9 @@
   </si>
   <si>
     <t>CHEBI</t>
+  </si>
+  <si>
+    <t>State List 2</t>
   </si>
 </sst>
 </file>
@@ -921,10 +924,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3C88824-479D-B248-A0DD-E97836B83A1D}">
-  <dimension ref="A1:AO47"/>
+  <dimension ref="A1:AP47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AL9" sqref="AL9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -951,7 +954,7 @@
     <col min="29" max="29" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:42" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1049,34 +1052,37 @@
         <v>121</v>
       </c>
       <c r="AG1" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="AH1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AO1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AP1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1114,7 +1120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1149,7 +1155,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1184,7 +1190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1219,7 +1225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1254,7 +1260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1289,7 +1295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1324,7 +1330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1362,7 +1368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1394,7 +1400,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1426,7 +1432,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1461,7 +1467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1496,7 +1502,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1528,7 +1534,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1563,7 +1569,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2669,16 +2675,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="4324b1bc-f1c8-438b-8373-34f23ce6f807">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007D04CF552C1E5A43BA744642835FFFEA" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a7a3ab0d8d422993d07f88d88a323796">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4324b1bc-f1c8-438b-8373-34f23ce6f807" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="53cd79b207cde2bc90e23e97b1ad17fc" ns2:_="">
     <xsd:import namespace="4324b1bc-f1c8-438b-8373-34f23ce6f807"/>
@@ -2850,6 +2846,16 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="4324b1bc-f1c8-438b-8373-34f23ce6f807">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2860,16 +2866,37 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15516A98-4BF1-4A02-B995-6207D8A84C16}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{680902B0-FAFB-4191-99D1-F246CBF35180}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="4324b1bc-f1c8-438b-8373-34f23ce6f807"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{680902B0-FAFB-4191-99D1-F246CBF35180}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15516A98-4BF1-4A02-B995-6207D8A84C16}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="4324b1bc-f1c8-438b-8373-34f23ce6f807"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
